--- a/Members.xlsx
+++ b/Members.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akansha/Desktop/RHUL/Projects/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A87EB49-0BE6-0A49-8DAE-9C73A62126E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -1132,8 +1126,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1196,14 +1190,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1250,7 +1236,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1282,27 +1268,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1334,24 +1302,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1527,25 +1477,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.83203125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1568,7 +1507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1585,7 +1524,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1602,7 +1541,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1619,7 +1558,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1636,7 +1575,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1653,7 +1592,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1670,7 +1609,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1687,7 +1626,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1704,7 +1643,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1721,7 +1660,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1738,7 +1677,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1752,7 +1691,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1769,7 +1708,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1786,7 +1725,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1803,7 +1742,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1820,7 +1759,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1837,7 +1776,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1854,7 +1793,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1871,7 +1810,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1888,7 +1827,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1905,7 +1844,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1922,7 +1861,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1942,7 +1881,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1959,7 +1898,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -1976,7 +1915,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -1993,7 +1932,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -2010,7 +1949,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -2027,7 +1966,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -2044,7 +1983,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -2061,7 +2000,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -2081,7 +2020,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -2098,7 +2037,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -2115,7 +2054,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -2132,7 +2071,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -2149,7 +2088,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -2166,7 +2105,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -2183,7 +2122,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -2200,7 +2139,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -2217,7 +2156,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -2234,7 +2173,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -2251,7 +2190,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -2268,7 +2207,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -2285,7 +2224,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -2302,7 +2241,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -2319,7 +2258,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -2336,7 +2275,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -2353,7 +2292,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -2370,7 +2309,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -2387,7 +2326,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -2404,7 +2343,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -2421,7 +2360,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -2438,7 +2377,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -2458,7 +2397,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -2475,7 +2414,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -2495,7 +2434,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -2515,7 +2454,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>62</v>
       </c>
@@ -2532,7 +2471,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -2549,7 +2488,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>64</v>
       </c>
@@ -2566,7 +2505,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -2583,7 +2522,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>66</v>
       </c>
@@ -2603,7 +2542,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>67</v>
       </c>
@@ -2620,7 +2559,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>68</v>
       </c>
@@ -2637,7 +2576,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>69</v>
       </c>
@@ -2654,7 +2593,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>70</v>
       </c>
@@ -2674,7 +2613,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>71</v>
       </c>
@@ -2691,7 +2630,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>72</v>
       </c>
@@ -2708,7 +2647,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>73</v>
       </c>
@@ -2725,7 +2664,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>74</v>
       </c>
@@ -2742,7 +2681,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>75</v>
       </c>
@@ -2759,7 +2698,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>76</v>
       </c>
@@ -2776,7 +2715,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>77</v>
       </c>
